--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2867.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2867.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.20040708758153</v>
+        <v>0.782872200012207</v>
       </c>
       <c r="B1">
-        <v>2.049351236899525</v>
+        <v>1.973571062088013</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.304929733276367</v>
       </c>
       <c r="D1">
-        <v>2.072572284048834</v>
+        <v>3.826452970504761</v>
       </c>
       <c r="E1">
-        <v>1.20770335855489</v>
+        <v>1.003474831581116</v>
       </c>
     </row>
   </sheetData>
